--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_17-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_17-14.xlsx
@@ -41,6 +41,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -65,9 +71,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>AUGRAM 1GM 14 TABS</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>CAPIXY LASH SERUM</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
     <t>9:1</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
     <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>NORIGYNCIN 1M AP.</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
   </si>
   <si>
     <t>PERLOC 40MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
@@ -933,17 +945,17 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -951,7 +963,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -959,17 +971,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -977,7 +989,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -985,17 +997,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1003,7 +1015,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1011,17 +1023,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1037,17 +1049,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1055,7 +1067,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1063,17 +1075,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1095,11 +1107,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1115,17 +1127,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>522.5</v>
+        <v>18</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1133,7 +1145,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1141,17 +1153,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>31</v>
+        <v>522.5</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1159,7 +1171,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1167,17 +1179,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1193,17 +1205,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1219,17 +1231,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1237,7 +1249,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1251,11 +1263,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1263,7 +1275,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1271,17 +1283,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1297,17 +1309,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1329,11 +1341,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1349,17 +1361,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>47.5</v>
+        <v>24</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1375,17 +1387,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1393,7 +1405,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1401,17 +1413,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>40</v>
+        <v>47.5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1427,17 +1439,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1453,17 +1465,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1471,7 +1483,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1479,17 +1491,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1497,7 +1509,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1505,17 +1517,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1531,17 +1543,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1549,7 +1561,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1557,17 +1569,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1583,17 +1595,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>15.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1601,7 +1613,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1609,17 +1621,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>85.560000000000002</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1627,7 +1639,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1635,17 +1647,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1653,7 +1665,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1661,17 +1673,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>65</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1679,7 +1691,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1687,17 +1699,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>24</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1713,17 +1725,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>27.329999999999998</v>
+        <v>39</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1739,17 +1751,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1771,11 +1783,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>277.5</v>
+        <v>24</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1791,17 +1803,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1817,17 +1829,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1835,7 +1847,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1843,17 +1855,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>16</v>
+        <v>277.5</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1861,7 +1873,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1869,17 +1881,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1887,7 +1899,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1895,17 +1907,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1913,7 +1925,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1921,17 +1933,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1939,7 +1951,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1947,17 +1959,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1965,7 +1977,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1973,17 +1985,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1999,17 +2011,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>56.399999999999999</v>
+        <v>61</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2017,7 +2029,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2025,17 +2037,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2043,7 +2055,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2051,17 +2063,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2069,7 +2081,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2077,17 +2089,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2095,7 +2107,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2103,17 +2115,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>65.75</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2121,7 +2133,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2129,17 +2141,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2147,7 +2159,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2155,17 +2167,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2173,7 +2185,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2181,17 +2193,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2207,17 +2219,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>36</v>
+        <v>65.75</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2233,17 +2245,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2259,17 +2271,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2285,17 +2297,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>2.5</v>
+        <v>22</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2303,7 +2315,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2311,17 +2323,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2329,7 +2341,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2337,17 +2349,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2355,7 +2367,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2363,17 +2375,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2381,7 +2393,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2389,17 +2401,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2407,7 +2419,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2415,17 +2427,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2433,7 +2445,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2441,17 +2453,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2459,7 +2471,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2467,17 +2479,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2485,7 +2497,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2493,17 +2505,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2511,7 +2523,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2519,17 +2531,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2537,7 +2549,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2545,17 +2557,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2563,7 +2575,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2571,17 +2583,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>19.199999999999999</v>
+        <v>70</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2589,7 +2601,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2597,17 +2609,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2615,7 +2627,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2623,51 +2635,155 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="K71" s="10">
-        <v>3767.04</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" ht="24.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>68</v>
+      </c>
+      <c t="s" r="B71" s="7">
         <v>102</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c t="s" r="F72" s="12">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c t="s" r="H71" s="8">
+        <v>17</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9">
+        <v>35</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c t="s" r="N71" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c t="s" r="B72" s="7">
         <v>103</v>
       </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="13"/>
-      <c t="s" r="I72" s="14">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c t="s" r="H72" s="8">
+        <v>95</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9">
+        <v>19.199999999999999</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c t="s" r="N72" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="A73" s="6">
+        <v>70</v>
+      </c>
+      <c t="s" r="B73" s="7">
         <v>104</v>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c t="s" r="H73" s="8">
+        <v>17</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9">
+        <v>20</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c t="s" r="N73" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
+        <v>105</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
+        <v>48</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>30</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c t="s" r="N74" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" ht="26.25" customHeight="1">
+      <c r="K75" s="10">
+        <v>4005.71</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="11">
+        <v>106</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c t="s" r="F76" s="12">
+        <v>107</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c t="s" r="I76" s="14">
+        <v>108</v>
+      </c>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="224">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2876,10 +2992,22 @@
     <mergeCell ref="B70:G70"/>
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="I76:N76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
